--- a/src/test/resources/myfile2.xlsx
+++ b/src/test/resources/myfile2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul.kulkarni/estyjm/src/test/resources/"/>
     </mc:Choice>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>AColumRow1</t>
   </si>
@@ -38,6 +38,12 @@
     <t>AColumRow3</t>
   </si>
   <si>
+    <t>AColumRow4</t>
+  </si>
+  <si>
+    <t>AColumRow5</t>
+  </si>
+  <si>
     <t>BColumnRow1</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
     <t>BColumnRow3</t>
   </si>
   <si>
+    <t>BColumnRow4</t>
+  </si>
+  <si>
+    <t>BColumnRow5</t>
+  </si>
+  <si>
     <t>CColumnRow1</t>
   </si>
   <si>
@@ -56,6 +68,12 @@
     <t>CColumnRow3</t>
   </si>
   <si>
+    <t>CColumnRow4</t>
+  </si>
+  <si>
+    <t>CColumnRow5</t>
+  </si>
+  <si>
     <t>DColumnRow1</t>
   </si>
   <si>
@@ -63,12 +81,34 @@
   </si>
   <si>
     <t>DColumnRow3</t>
+  </si>
+  <si>
+    <t>DColumnRow4</t>
+  </si>
+  <si>
+    <t>DColumnRow5</t>
+  </si>
+  <si>
+    <t>Hello 0</t>
+  </si>
+  <si>
+    <t>Hello 1</t>
+  </si>
+  <si>
+    <t>Hello 2</t>
+  </si>
+  <si>
+    <t>Hello 3</t>
+  </si>
+  <si>
+    <t>Hello 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -397,18 +437,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -416,13 +455,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -430,13 +472,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -444,13 +489,50 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
